--- a/Tools/Excel/Language.xlsx
+++ b/Tools/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390"/>
+    <workbookView windowWidth="28695" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>ID索引</t>
   </si>
@@ -33,6 +33,15 @@
     <t>备用</t>
   </si>
   <si>
+    <t>&lt;a href=(超链事件的名字)&gt;（超链内容）&lt;/a&gt;   可能用到超链接的地方要在文档中标明  需要用到特殊的文本脚本
+%s 表示替换内容为字符串       %d 表示替换内容为数字    %.2f表示替换内容为2位小数，其他数字也行
+        想显示含%的文本，要在d后再加一个%%，否则会报错。
+换行：在单元格内换行即可实现文字再游戏中的
+&lt;color=#0000ff&gt;内容&lt;/color&gt; 设置文字颜色0000ff为颜色的16进制表示
+&lt;size=60&gt;内容&lt;/size&gt; 可以设置局部字体大小（&lt;/size&gt;） 设置字体大小  慎用
+示例：&lt;color=#0000ff&gt;&lt;size=60&gt;小明&lt;/size&gt;&lt;/color&gt;送了&lt;color=#0000ff&gt;&lt;size=60&gt;小红&lt;/size&gt;&lt;/color&gt;一辆游艇</t>
+  </si>
+  <si>
     <t>测试文字1</t>
   </si>
   <si>
@@ -44,12 +53,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,10 +67,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -73,6 +164,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -88,24 +180,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,29 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,61 +205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +238,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,175 +274,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,17 +432,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,11 +465,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,177 +529,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +691,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1041,7 +1046,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1066,12 +1071,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="15" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1079,7 +1084,7 @@
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1087,7 +1092,7 @@
         <v>10001</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Excel/Language.xlsx
+++ b/Tools/Excel/Language.xlsx
@@ -33,13 +33,7 @@
     <t>备用</t>
   </si>
   <si>
-    <t>&lt;a href=(超链事件的名字)&gt;（超链内容）&lt;/a&gt;   可能用到超链接的地方要在文档中标明  需要用到特殊的文本脚本
-%s 表示替换内容为字符串       %d 表示替换内容为数字    %.2f表示替换内容为2位小数，其他数字也行
-        想显示含%的文本，要在d后再加一个%%，否则会报错。
-换行：在单元格内换行即可实现文字再游戏中的
-&lt;color=#0000ff&gt;内容&lt;/color&gt; 设置文字颜色0000ff为颜色的16进制表示
-&lt;size=60&gt;内容&lt;/size&gt; 可以设置局部字体大小（&lt;/size&gt;） 设置字体大小  慎用
-示例：&lt;color=#0000ff&gt;&lt;size=60&gt;小明&lt;/size&gt;&lt;/color&gt;送了&lt;color=#0000ff&gt;&lt;size=60&gt;小红&lt;/size&gt;&lt;/color&gt;一辆游艇</t>
+    <t>备注</t>
   </si>
   <si>
     <t>测试文字1</t>
@@ -53,9 +47,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -67,6 +61,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -75,30 +143,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,15 +159,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -128,6 +184,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -135,77 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +232,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -256,12 +310,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -274,151 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,17 +429,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,6 +461,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,36 +523,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1040,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
